--- a/medicine/Enfance/American_Academy_of_Child_and_Adolescent_Psychiatry/American_Academy_of_Child_and_Adolescent_Psychiatry.xlsx
+++ b/medicine/Enfance/American_Academy_of_Child_and_Adolescent_Psychiatry/American_Academy_of_Child_and_Adolescent_Psychiatry.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'American Academy of Child and Adolescent Psychiatry (AACAP) est une association professionnelle à but non lucratif 501(c)(3) aux États-Unis qui se consacre à faciliter les soins psychiatriques pour les enfants et les adolescents. L'Académie a son siège à Washington, DC[1],[2]. Différents niveaux d'adhésion sont disponibles pour les médecins spécialisés en pédopsychiatrie ou pédiatrie, ainsi que pour les étudiants en médecine intéressés par le domaine, aux États-Unis et à l'étranger[3].
-Fondée en 1953 sous le nom d'American Academy of Child Psychiatry (AACP), elle est devenue l'American Academy of Child and Adolescent Psychiatry (AACAP) en 1989[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'American Academy of Child and Adolescent Psychiatry (AACAP) est une association professionnelle à but non lucratif 501(c)(3) aux États-Unis qui se consacre à faciliter les soins psychiatriques pour les enfants et les adolescents. L'Académie a son siège à Washington, DC,. Différents niveaux d'adhésion sont disponibles pour les médecins spécialisés en pédopsychiatrie ou pédiatrie, ainsi que pour les étudiants en médecine intéressés par le domaine, aux États-Unis et à l'étranger.
+Fondée en 1953 sous le nom d'American Academy of Child Psychiatry (AACP), elle est devenue l'American Academy of Child and Adolescent Psychiatry (AACAP) en 1989.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis 1962, l'AACAP publie une revue mensuelle, Journal of the American Academy of Child and Adolescent Psychiatry (en) (JAACAP)[5],[6].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis 1962, l'AACAP publie une revue mensuelle, Journal of the American Academy of Child and Adolescent Psychiatry (en) (JAACAP),.
 </t>
         </is>
       </c>
